--- a/Plasma_Pipette_PP Issue list.xlsx
+++ b/Plasma_Pipette_PP Issue list.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEBEE13-4E52-47D9-A7C9-945907D84749}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issue" sheetId="1" r:id="rId1"/>
     <sheet name="1222 Meeting" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sample" sheetId="3" r:id="rId3"/>
+    <sheet name="1225" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="91">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,14 +190,216 @@
   </si>
   <si>
     <t>3) 600W 추가 검토 ( Femto : 2019 말까지 개발 완료 계획 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset S/W 불량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans 2차측 GND가 2차측 Pin에 연결되어 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차-1[uH]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차-2[uH]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차[H]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductance-Initial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductance-re-work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re-work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin solder 재작업 : 2차측 GND를 1차측 GND pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로맥스지 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Off가 안됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_PWR_Pin GPIO 설정 변경
+NOPULL -&gt; PULLDOWN (Gpio.c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma On Key 동작 안됨.
+ Default Low 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전중 Plasma 동작 안하도록 수정하며 생긴 문제임
+USB_DET_Pin GPIO 설정 변경
+NOPULL -&gt; PULLDOWN (Gpio.c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time[msec/10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011225-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+8V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.36V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rising time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.72msec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V Not operation
+ PMBT222 collector-emitter 간 저항이 높아 collector 전압이 3V까지밖에 안떨어짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FET로 부품 변경 
+ FTK2306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5 ECO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans 2차측 GND는 1차측 GND에 연결되어야 함.
+-회로 수정 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;#&quot;00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +423,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +446,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -416,11 +647,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -437,21 +765,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -464,9 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -480,11 +796,125 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,9 +922,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -543,7 +981,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,9 +1014,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,6 +1066,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -786,26 +1258,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="4.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="57.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="59" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -825,170 +1297,210 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>43456</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="42">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>43456</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="42">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>43456</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="42">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>43456</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+    <row r="9" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="42">
         <v>5</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+      <c r="C9" s="8">
+        <v>43457</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+      <c r="F9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="52">
+        <v>6</v>
+      </c>
+      <c r="C10" s="53">
+        <v>43458</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="42">
         <v>7</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
+      <c r="C11" s="8">
+        <v>43459</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B12" s="42">
         <v>8</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="19"/>
+      <c r="C12" s="8">
+        <v>43459</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="42"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="42"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="42"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="42"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="43"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C20" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -998,167 +1510,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28:Q29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="20" customWidth="1"/>
-    <col min="4" max="4" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="44">
         <v>43456</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="20" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="20" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="20" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C18" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="20" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="20" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C25" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="20" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C29" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="20" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C32" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1174,13 +1686,424 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="6.796875" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="41.09765625" customWidth="1"/>
+    <col min="12" max="12" width="6.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L3" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="46"/>
+      <c r="S3" s="47"/>
+    </row>
+    <row r="4" spans="2:19" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="23">
+        <v>1</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="27">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="L6" s="27">
+        <v>2</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21">
+        <v>38.33</v>
+      </c>
+      <c r="O6" s="21">
+        <v>38.26</v>
+      </c>
+      <c r="P6" s="21">
+        <v>4.03</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="R6" s="21">
+        <v>40.6</v>
+      </c>
+      <c r="S6" s="28">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="27">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="L7" s="27">
+        <v>3</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21">
+        <v>34.06</v>
+      </c>
+      <c r="O7" s="21">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="P7" s="21">
+        <v>3.6280000000000001</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="27">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="27">
+        <v>4</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="56">
+        <v>49.42</v>
+      </c>
+      <c r="O8" s="56">
+        <v>49.4</v>
+      </c>
+      <c r="P8" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="29">
+        <v>5</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="L9" s="29">
+        <v>5</v>
+      </c>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32">
+        <v>37.94</v>
+      </c>
+      <c r="O9" s="32">
+        <v>38.15</v>
+      </c>
+      <c r="P9" s="32">
+        <v>3.96</v>
+      </c>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="33"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="L12" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="I13" s="18"/>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC12502-9C27-4254-AB4E-CFA705610F51}">
+  <dimension ref="B4:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plasma_Pipette_PP Issue list.xlsx
+++ b/Plasma_Pipette_PP Issue list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEBEE13-4E52-47D9-A7C9-945907D84749}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FFBCB3-3BB8-45FE-B180-D26C67B04277}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,15 @@
     <sheet name="Issue" sheetId="1" r:id="rId1"/>
     <sheet name="1222 Meeting" sheetId="2" r:id="rId2"/>
     <sheet name="Sample" sheetId="3" r:id="rId3"/>
-    <sheet name="1225" sheetId="4" r:id="rId4"/>
+    <sheet name="Trans" sheetId="5" r:id="rId4"/>
+    <sheet name="1225" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +50,6 @@
   </si>
   <si>
     <t>Trans 위치에 PCB cutting이 안되어 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 Manual로 작업하고, PCB file에 V-Cut 표시 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -389,6 +386,99 @@
   <si>
     <t>Trans 2차측 GND는 1차측 GND에 연결되어야 함.
 -회로 수정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 Manual로 작업하고, PCB file에 Board Cut out 표시 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3.0 Battery Pack 사용 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8V 외부에서 인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4V 외부에서 인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductance-molding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans molding case의 2차측 방향의 screw hole 위치가 전극과 가깝다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 조립시 비금속 제질의 screw 사용
+- 조립 hole를 GND PAD쪽으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완충 인식 안됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +554,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -744,11 +840,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -765,12 +872,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -779,9 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -856,37 +954,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,14 +978,66 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,6 +1059,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA77CD3-E380-4C55-B6B7-B4FFD78D72CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="4168140"/>
+          <a:ext cx="6116320" cy="4587240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0134AA55-8665-482A-BA8D-2E3884E21C46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6967220" y="4160520"/>
+          <a:ext cx="6040120" cy="4530090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1259,15 +1487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G20"/>
+  <dimension ref="B3:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.09765625" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
@@ -1294,213 +1522,381 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="54">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55">
+        <v>43456</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="38">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43456</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="41">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="38">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
         <v>43456</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F7" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="49">
+        <v>4</v>
+      </c>
+      <c r="C8" s="50">
+        <v>43456</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="49">
+        <v>5</v>
+      </c>
+      <c r="C9" s="50">
+        <v>43457</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="40">
+        <v>6</v>
+      </c>
+      <c r="C10" s="41">
+        <v>43458</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="40">
         <v>7</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="C11" s="41">
+        <v>43459</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B12" s="40">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="42">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>43456</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C12" s="41">
+        <v>43459</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="38">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43460</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="38">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>43466</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="42">
+      <c r="E14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="38">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43466</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
-        <v>43456</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="42">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8">
-        <v>43456</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="E15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="38">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="38">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="38">
         <v>14</v>
       </c>
-      <c r="G8" s="60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="42">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
-        <v>43457</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B10" s="52">
-        <v>6</v>
-      </c>
-      <c r="C10" s="53">
-        <v>43458</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B11" s="42">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <v>43459</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B12" s="42">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8">
-        <v>43459</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="42"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="42"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="42"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="42"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="43"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C18" s="15"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C19" s="15"/>
+      <c r="B19" s="38">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="15"/>
+      <c r="B20" s="38">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="38">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="38">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="38">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="38"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="38"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="38"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="38"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="38"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="38"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="38"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="38"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="39"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C35" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1514,164 +1910,164 @@
   <dimension ref="B3:E32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.09765625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="13" customWidth="1"/>
     <col min="4" max="4" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C4" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="59">
+        <v>43456</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C9" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="44">
-        <v>43456</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C9" s="16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C13" s="13" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C13" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="16" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C18" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="16" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C19" s="16" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C20" s="13" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C20" s="16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="16" t="s">
-        <v>36</v>
+      <c r="C25" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C29" s="16" t="s">
-        <v>38</v>
+      <c r="C29" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C32" s="16" t="s">
-        <v>42</v>
+      <c r="C32" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1687,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:S14"/>
+  <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1700,321 +2096,188 @@
     <col min="4" max="4" width="5.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="41.09765625" customWidth="1"/>
-    <col min="12" max="12" width="6.19921875" customWidth="1"/>
+    <col min="7" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="41.09765625" customWidth="1"/>
+    <col min="13" max="13" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="16" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:11" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L3" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="50" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="47"/>
-    </row>
-    <row r="4" spans="2:19" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="D5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="38" t="s">
+      <c r="F6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="24">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="24">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24" t="s">
+    </row>
+    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="26">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="23">
-        <v>1</v>
-      </c>
-      <c r="M5" s="24" t="s">
+      <c r="E9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="27">
-        <v>2</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="L6" s="27">
-        <v>2</v>
-      </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21">
-        <v>38.33</v>
-      </c>
-      <c r="O6" s="21">
-        <v>38.26</v>
-      </c>
-      <c r="P6" s="21">
-        <v>4.03</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="R6" s="21">
-        <v>40.6</v>
-      </c>
-      <c r="S6" s="28">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B7" s="27">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="L7" s="27">
-        <v>3</v>
-      </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21">
-        <v>34.06</v>
-      </c>
-      <c r="O7" s="21">
-        <v>34.409999999999997</v>
-      </c>
-      <c r="P7" s="21">
-        <v>3.6280000000000001</v>
-      </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="28"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B8" s="27">
-        <v>4</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="27">
-        <v>4</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="56">
-        <v>49.42</v>
-      </c>
-      <c r="O8" s="56">
-        <v>49.4</v>
-      </c>
-      <c r="P8" s="21">
-        <v>3.97</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="28"/>
-    </row>
-    <row r="9" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="29">
-        <v>5</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="L9" s="29">
-        <v>5</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
-        <v>37.94</v>
-      </c>
-      <c r="O9" s="32">
-        <v>38.15</v>
-      </c>
-      <c r="P9" s="32">
-        <v>3.96</v>
-      </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="L12" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="I13" s="18"/>
-      <c r="M13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="M14" t="s">
-        <v>63</v>
-      </c>
+      <c r="J9" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J13" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2022,11 +2285,268 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC12502-9C27-4254-AB4E-CFA705610F51}">
-  <dimension ref="B4:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8599D64-2442-43DC-9DEE-9FA6DE56B094}">
+  <dimension ref="B3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="64"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="24">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
+        <v>38.33</v>
+      </c>
+      <c r="E7" s="18">
+        <v>38.26</v>
+      </c>
+      <c r="F7" s="18">
+        <v>4.03</v>
+      </c>
+      <c r="G7" s="18">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="H7" s="18">
+        <v>40.6</v>
+      </c>
+      <c r="I7" s="25">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="24">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18">
+        <v>34.06</v>
+      </c>
+      <c r="E8" s="18">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="F8" s="18">
+        <v>3.6280000000000001</v>
+      </c>
+      <c r="G8" s="18">
+        <v>32.1</v>
+      </c>
+      <c r="H8" s="18">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I8" s="25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="24">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="44">
+        <v>49.42</v>
+      </c>
+      <c r="E9" s="44">
+        <v>49.4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>3.97</v>
+      </c>
+      <c r="J9">
+        <v>20.25</v>
+      </c>
+      <c r="K9">
+        <v>20.3</v>
+      </c>
+      <c r="L9">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="26">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29">
+        <v>37.94</v>
+      </c>
+      <c r="E10" s="29">
+        <v>38.15</v>
+      </c>
+      <c r="F10" s="29">
+        <v>3.96</v>
+      </c>
+      <c r="J10">
+        <v>20.27</v>
+      </c>
+      <c r="K10">
+        <v>20.3</v>
+      </c>
+      <c r="L10">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D11" s="67">
+        <v>34.4</v>
+      </c>
+      <c r="E11" s="67">
+        <v>34.5</v>
+      </c>
+      <c r="F11" s="67">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D12" s="67">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E12" s="67">
+        <v>36</v>
+      </c>
+      <c r="F12" s="67">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <v>20.25</v>
+      </c>
+      <c r="H16">
+        <v>20.3</v>
+      </c>
+      <c r="I16">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <v>20.27</v>
+      </c>
+      <c r="H17">
+        <v>20.3</v>
+      </c>
+      <c r="I17">
+        <v>1.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="J4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC12502-9C27-4254-AB4E-CFA705610F51}">
+  <dimension ref="B4:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2034,77 +2554,188 @@
     <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>73</v>
       </c>
       <c r="C5">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6">
+        <v>0.25</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>L6*M6</f>
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>7.48</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="57" t="s">
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
+        <v>0.06</v>
+      </c>
+      <c r="L7">
+        <v>230</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <f>L7*M7</f>
+        <v>1610</v>
+      </c>
+      <c r="O7">
+        <f>O6*N7/N6</f>
+        <v>2576</v>
+      </c>
+      <c r="P7">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <v>0.27</v>
+      </c>
+      <c r="H8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <f>G7*G8</f>
+        <v>2.16</v>
+      </c>
+      <c r="H9">
+        <f>H7*H8</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B10" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>88</v>
       </c>
       <c r="C15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>0.27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Plasma_Pipette_PP Issue list.xlsx
+++ b/Plasma_Pipette_PP Issue list.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FFBCB3-3BB8-45FE-B180-D26C67B04277}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Issue" sheetId="1" r:id="rId1"/>
@@ -14,12 +13,12 @@
     <sheet name="Trans" sheetId="5" r:id="rId4"/>
     <sheet name="1225" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="120">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,13 +478,44 @@
   </si>
   <si>
     <t>완충 인식 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma On시 Off됨.
+ - Power supply 사용시 정상 동작 : 2.3A 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery에서 Voltage drop 발생
+2A 이상 전류를 지원하는 Battery 필요
+Trans의 소모 전류 낮춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma Off시 On 상태를 그대로 유지하는 경우가 발생함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma On후 board가 Reset되는 경우, S/V는 On 상태를 유지하고 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V에 current path 추가 - Diode 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_OP에 shunt Cap 4.7uF/25V 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;#&quot;00"/>
   </numFmts>
@@ -855,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1011,6 +1041,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,8 +1069,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1117,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA77CD3-E380-4C55-B6B7-B4FFD78D72CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BA77CD3-E380-4C55-B6B7-B4FFD78D72CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1167,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0134AA55-8665-482A-BA8D-2E3884E21C46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0134AA55-8665-482A-BA8D-2E3884E21C46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1209,7 +1245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1242,26 +1278,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1294,23 +1313,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1486,26 +1488,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="57.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="59" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="54">
         <v>1</v>
       </c>
@@ -1545,7 +1547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="38">
         <v>2</v>
       </c>
@@ -1563,7 +1565,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="38">
         <v>3</v>
       </c>
@@ -1581,7 +1583,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="49">
         <v>4</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="49">
         <v>5</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="40">
         <v>6</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B11" s="40">
         <v>7</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="40">
         <v>8</v>
       </c>
@@ -1681,7 +1683,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="38">
         <v>9</v>
       </c>
@@ -1699,7 +1701,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="38">
         <v>10</v>
       </c>
@@ -1715,11 +1717,11 @@
       <c r="F14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="60" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="38">
         <v>11</v>
       </c>
@@ -1737,119 +1739,143 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="38">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C16" s="6">
+        <v>43470</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="38">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C17" s="6">
+        <v>43470</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="38">
         <v>14</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F18" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="38">
         <v>15</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="38">
         <v>16</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="38">
         <v>17</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="38">
         <v>18</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="38">
         <v>19</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="38"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="38"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="38"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="38"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="38"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
@@ -1857,7 +1883,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="38"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -1865,7 +1891,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="38"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
@@ -1873,7 +1899,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="38"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -1881,7 +1907,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="39"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
@@ -1889,13 +1915,13 @@
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="12"/>
     </row>
   </sheetData>
@@ -1906,166 +1932,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.09765625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="61">
         <v>43456</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C29" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
         <v>41</v>
       </c>
@@ -2082,33 +2108,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.796875" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="7.5" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="41.09765625" customWidth="1"/>
-    <col min="13" max="13" width="6.19921875" customWidth="1"/>
+    <col min="11" max="11" width="41.125" customWidth="1"/>
+    <col min="13" max="13" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:11" s="14" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" s="14" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="33" t="s">
         <v>42</v>
       </c>
@@ -2140,7 +2166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="20">
         <v>1</v>
       </c>
@@ -2162,7 +2188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="24">
         <v>2</v>
       </c>
@@ -2188,7 +2214,7 @@
       </c>
       <c r="K6" s="25"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="24">
         <v>3</v>
       </c>
@@ -2216,7 +2242,7 @@
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="24">
         <v>4</v>
       </c>
@@ -2246,7 +2272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="26">
         <v>5</v>
       </c>
@@ -2274,7 +2300,7 @@
       </c>
       <c r="K9" s="30"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J13" s="15"/>
     </row>
   </sheetData>
@@ -2285,46 +2311,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8599D64-2442-43DC-9DEE-9FA6DE56B094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="63" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="61" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="62"/>
-    </row>
-    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="64"/>
-      <c r="C5" s="66"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
+    </row>
+    <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="66"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="36" t="s">
         <v>55</v>
       </c>
@@ -2353,7 +2379,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
         <v>1</v>
       </c>
@@ -2373,7 +2399,7 @@
       <c r="H6" s="31"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="24">
         <v>2</v>
       </c>
@@ -2397,7 +2423,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="24">
         <v>3</v>
       </c>
@@ -2421,7 +2447,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="24">
         <v>4</v>
       </c>
@@ -2445,7 +2471,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="26">
         <v>5</v>
       </c>
@@ -2469,44 +2495,44 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D11" s="67">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="59">
         <v>34.4</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="59">
         <v>34.5</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="59">
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D12" s="67">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="59">
         <v>35.200000000000003</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="59">
         <v>36</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="59">
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>20.25</v>
       </c>
@@ -2517,7 +2543,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>20.27</v>
       </c>
@@ -2542,19 +2568,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC12502-9C27-4254-AB4E-CFA705610F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -2565,7 +2591,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -2591,7 +2617,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -2621,7 +2647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>74</v>
       </c>
@@ -2658,7 +2684,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>0.27</v>
       </c>
@@ -2666,7 +2692,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G9">
         <f>G7*G8</f>
         <v>2.16</v>
@@ -2676,7 +2702,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="45" t="s">
         <v>77</v>
       </c>
@@ -2684,7 +2710,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>79</v>
       </c>
@@ -2692,12 +2718,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>87</v>
       </c>
@@ -2705,7 +2731,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>88</v>
       </c>
@@ -2713,7 +2739,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>94</v>
       </c>
@@ -2724,7 +2750,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>0.14000000000000001</v>
       </c>

--- a/Plasma_Pipette_PP Issue list.xlsx
+++ b/Plasma_Pipette_PP Issue list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,12 +13,12 @@
     <sheet name="Trans" sheetId="5" r:id="rId4"/>
     <sheet name="1225" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OPEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,6 +505,19 @@
   </si>
   <si>
     <t>KEY_OP에 shunt Cap 4.7uF/25V 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans molding시 PCB가 case에 밀착이 되지 않아 molding 액이 넘침
+trans coil이 완전히 잠기지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans case에 hook 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire type으로 계속 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1045,6 +1054,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,11 +1084,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,7 +1129,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BA77CD3-E380-4C55-B6B7-B4FFD78D72CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA77CD3-E380-4C55-B6B7-B4FFD78D72CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,7 +1179,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0134AA55-8665-482A-BA8D-2E3884E21C46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0134AA55-8665-482A-BA8D-2E3884E21C46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1504,7 @@
   <dimension ref="B3:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1684,22 +1696,24 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="38">
+      <c r="B13" s="40">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="41">
         <v>43460</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="71" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="38">
@@ -1712,13 +1726,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="60" t="s">
         <v>109</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -1732,10 +1746,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -1750,13 +1764,13 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="G16" s="62" t="s">
         <v>114</v>
-      </c>
-      <c r="G16" s="70" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -1770,38 +1784,54 @@
         <v>3</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="38">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="69" t="s">
+      <c r="C18" s="6">
+        <v>43470</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="38">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="6">
+        <v>43470</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="38">
@@ -1810,7 +1840,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="69"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -1820,7 +1850,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="69"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -1830,7 +1860,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="69"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -1840,7 +1870,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="69"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -1848,7 +1878,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="69"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -1856,7 +1886,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="69"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -1864,7 +1894,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="69"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -1872,7 +1902,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="69"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
@@ -1950,31 +1980,31 @@
       <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="63">
         <v>43456</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
@@ -2157,7 +2187,7 @@
         <v>85</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>48</v>
@@ -2326,31 +2356,31 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="66"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="36" t="s">
         <v>55</v>
       </c>
@@ -2588,7 +2618,7 @@
         <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -2599,22 +2629,22 @@
         <v>3.48</v>
       </c>
       <c r="K5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s">
         <v>100</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>101</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>102</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>103</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
@@ -2625,7 +2655,7 @@
         <v>5.52</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>0.25</v>
@@ -2661,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>0.06</v>
@@ -2741,13 +2771,13 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>0.27</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -2755,7 +2785,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Plasma_Pipette_PP Issue list.xlsx
+++ b/Plasma_Pipette_PP Issue list.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F726C5-7E13-4139-92E6-A4503B7EB70E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issue" sheetId="1" r:id="rId1"/>
@@ -12,13 +13,14 @@
     <sheet name="Sample" sheetId="3" r:id="rId3"/>
     <sheet name="Trans" sheetId="5" r:id="rId4"/>
     <sheet name="1225" sheetId="4" r:id="rId5"/>
+    <sheet name="0115" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="150">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +208,6 @@
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -363,10 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q5 ECO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S/V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,18 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plasma Off시 On 상태를 그대로 유지하는 경우가 발생함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plasma On후 board가 Reset되는 경우, S/V는 On 상태를 유지하고 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/V에 current path 추가 - Diode 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KEY_OP에 shunt Cap 4.7uF/25V 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,17 +500,157 @@
   </si>
   <si>
     <t>wire type으로 계속 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batttery CON 변경 - 전류 3A 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND Copper에서 주변에 Spark 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB외곽의 GND 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpp[KV]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iout[mA]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma On후 Off시 Key가 먹지 않음.
+ - Plasma On시 Key로 출력이 유기되어 Key 인식을 못함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL3</t>
+  </si>
+  <si>
+    <t>#05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma On후 board가 Reset되는 경우, S/V는 On 상태를 유지하고 있음.
+S/V에 current path 추가 - Diode 추가 - 회사에서 다시 재현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V에 current path 추가 - 1N4148WS
+Q3 Gate에 shunt 10K 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aging Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main #05, Trans #04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC/DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Ind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Femto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q3 ECO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF
+10K
+1N4148WS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans 온도가 높음.
+ - Vcc Path에 Inductor 추가 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma On후 5초후 S/V On 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3,U4가 Plasma Max 출력 2분만에 65도 이상 온도가 올라감
+ - Inductor size up 필요
+ - Trans Turn ratio 조정 : 현재 전압이 높음(12KV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/17 Binary에 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;#&quot;00"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +678,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -600,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -890,11 +1021,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -933,9 +1090,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -946,9 +1100,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -978,15 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,8 +1199,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,8 +1277,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,7 +1322,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA77CD3-E380-4C55-B6B7-B4FFD78D72CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA77CD3-E380-4C55-B6B7-B4FFD78D72CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,7 +1372,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0134AA55-8665-482A-BA8D-2E3884E21C46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0134AA55-8665-482A-BA8D-2E3884E21C46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1290,9 +1483,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1325,6 +1535,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1500,26 +1727,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="57.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="70"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="57.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="59" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1539,34 +1767,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="54">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="50">
         <v>43456</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="38">
+      <c r="G5" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="33">
         <v>2</v>
       </c>
       <c r="C6" s="6">
         <v>43456</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="72" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1577,381 +1805,437 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="38">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="33">
         <v>3</v>
       </c>
       <c r="C7" s="6">
         <v>43456</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="72" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="42" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="49">
+    <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="44">
         <v>4</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="45">
         <v>43456</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="44">
+        <v>5</v>
+      </c>
+      <c r="C9" s="45">
+        <v>43457</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="35">
+        <v>6</v>
+      </c>
+      <c r="C10" s="36">
+        <v>43458</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="35">
+        <v>7</v>
+      </c>
+      <c r="C11" s="36">
+        <v>43459</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="49">
-        <v>5</v>
-      </c>
-      <c r="C9" s="50">
-        <v>43457</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="58" t="s">
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B12" s="35">
+        <v>8</v>
+      </c>
+      <c r="C12" s="36">
+        <v>43459</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="35">
+        <v>9</v>
+      </c>
+      <c r="C13" s="36">
+        <v>43460</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
-        <v>6</v>
-      </c>
-      <c r="C10" s="41">
-        <v>43458</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="40">
-        <v>7</v>
-      </c>
-      <c r="C11" s="41">
-        <v>43459</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="40">
-        <v>8</v>
-      </c>
-      <c r="C12" s="41">
-        <v>43459</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="40">
-        <v>9</v>
-      </c>
-      <c r="C13" s="41">
-        <v>43460</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="38">
+      <c r="F13" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="33">
         <v>10</v>
       </c>
       <c r="C14" s="6">
         <v>43466</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="72" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="38">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="33">
         <v>11</v>
       </c>
       <c r="C15" s="6">
         <v>43466</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="72" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B16" s="58">
+        <v>12</v>
+      </c>
+      <c r="C16" s="59">
+        <v>43470</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="38">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="G16" s="62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B17" s="35">
+        <v>13</v>
+      </c>
+      <c r="C17" s="36">
         <v>43470</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="61" t="s">
+      <c r="D17" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="38">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6">
+    </row>
+    <row r="18" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B18" s="35">
+        <v>14</v>
+      </c>
+      <c r="C18" s="36">
         <v>43470</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="38">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6">
-        <v>43470</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="38">
+      <c r="D18" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="33">
         <v>15</v>
       </c>
       <c r="C19" s="6">
         <v>43470</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="72" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="33">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43478</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="33">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6">
+        <v>43478</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="38">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="38">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="38">
+    </row>
+    <row r="22" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B22" s="33">
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="61"/>
+      <c r="C22" s="6">
+        <v>43480</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>148</v>
+      </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="38">
+    <row r="23" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B23" s="33">
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="61"/>
+      <c r="C23" s="6">
+        <v>43480</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>146</v>
+      </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="35">
+        <v>20</v>
+      </c>
+      <c r="C24" s="36">
+        <v>43481</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="33">
+        <v>21</v>
+      </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="61"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="38"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="33">
+        <v>22</v>
+      </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="61"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="33">
+        <v>23</v>
+      </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="61"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="38"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="33">
+        <v>24</v>
+      </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="38"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="33">
+        <v>25</v>
+      </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="38"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="33"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="33"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
+    <row r="32" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="34"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C35" s="12"/>
     </row>
   </sheetData>
@@ -1962,166 +2246,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="13" customWidth="1"/>
-    <col min="4" max="4" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="77">
         <v>43456</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C18" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C25" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C29" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C32" s="13" t="s">
         <v>41</v>
       </c>
@@ -2138,200 +2422,223 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="41.125" customWidth="1"/>
-    <col min="13" max="13" width="6.25" customWidth="1"/>
+    <col min="10" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="41.09765625" customWidth="1"/>
+    <col min="14" max="14" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:11" s="14" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:12" s="69" customFormat="1" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="35" t="s">
+      <c r="F6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="22">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="22">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="20">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="24">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
+    <row r="9" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="24">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="24">
-        <v>3</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16" t="s">
+      <c r="E9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="J9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="24">
-        <v>4</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26">
-        <v>5</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J13" s="15"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2341,154 +2648,154 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-    </row>
-    <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="68"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="36" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
+    </row>
+    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="82"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="F5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="I5" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="L5" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="20">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="24">
+      <c r="D6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
         <v>38.33</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>38.26</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>4.03</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>40.299999999999997</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>40.6</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="23">
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="24">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="22">
         <v>3</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17">
         <v>34.06</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>34.409999999999997</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>3.6280000000000001</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>32.1</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>32.700000000000003</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="23">
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="24">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="22">
         <v>4</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="44">
+      <c r="C9" s="17"/>
+      <c r="D9" s="39">
         <v>49.42</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="39">
         <v>49.4</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>3.97</v>
       </c>
       <c r="J9">
@@ -2501,18 +2808,18 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26">
+    <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="24">
         <v>5</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27">
         <v>37.94</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="27">
         <v>38.15</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>3.96</v>
       </c>
       <c r="J10">
@@ -2525,44 +2832,44 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="59">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D11" s="54">
         <v>34.4</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="54">
         <v>34.5</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="54">
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="59">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D12" s="54">
         <v>35.200000000000003</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="54">
         <v>36</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="54">
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="G16">
         <v>20.25</v>
       </c>
@@ -2573,7 +2880,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G17">
         <v>20.27</v>
       </c>
@@ -2598,64 +2905,64 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>72</v>
       </c>
       <c r="C5">
         <v>3.48</v>
       </c>
       <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s">
         <v>99</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>100</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>101</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>102</v>
       </c>
-      <c r="O5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>5.52</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>0.25</v>
@@ -2677,9 +2984,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>7.48</v>
@@ -2691,7 +2998,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K7">
         <v>0.06</v>
@@ -2714,7 +3021,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="G8">
         <v>0.27</v>
       </c>
@@ -2722,7 +3029,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="G9">
         <f>G7*G8</f>
         <v>2.16</v>
@@ -2732,60 +3039,60 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="45" t="s">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B10" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>0.27</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C18">
         <v>0.14000000000000001</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2794,4 +3101,359 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C743F30-F2FB-48F9-B4FB-C75560494300}">
+  <dimension ref="C4:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="M4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C6" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.91</v>
+      </c>
+      <c r="H6">
+        <f>F6*G6</f>
+        <v>3.7309999999999999</v>
+      </c>
+      <c r="I6">
+        <v>11.36</v>
+      </c>
+      <c r="J6" s="63">
+        <f>H6/I6</f>
+        <v>0.32843309859154929</v>
+      </c>
+      <c r="M6" s="66">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.6</v>
+      </c>
+      <c r="O6">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G7">
+        <v>1.36</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H8" si="0">F7*G7</f>
+        <v>5.5759999999999996</v>
+      </c>
+      <c r="I7">
+        <v>11.36</v>
+      </c>
+      <c r="J7" s="63">
+        <f t="shared" ref="J7:J14" si="1">H7/I7</f>
+        <v>0.49084507042253522</v>
+      </c>
+      <c r="M7" s="66">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="N7">
+        <v>1.61</v>
+      </c>
+      <c r="O7">
+        <v>11.36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>139</v>
+      </c>
+      <c r="R7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G8">
+        <v>1.67</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>6.8469999999999995</v>
+      </c>
+      <c r="I8">
+        <v>11.36</v>
+      </c>
+      <c r="J8" s="63">
+        <f t="shared" si="1"/>
+        <v>0.60272887323943658</v>
+      </c>
+      <c r="M8" s="66">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="N8">
+        <v>1.46</v>
+      </c>
+      <c r="O8">
+        <v>11.36</v>
+      </c>
+      <c r="P8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C9" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.86</v>
+      </c>
+      <c r="H9">
+        <f>F9*G9</f>
+        <v>3.5259999999999998</v>
+      </c>
+      <c r="I9">
+        <v>11.36</v>
+      </c>
+      <c r="J9" s="63">
+        <f t="shared" si="1"/>
+        <v>0.31038732394366197</v>
+      </c>
+      <c r="M9" s="66">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.3</v>
+      </c>
+      <c r="O9">
+        <v>11.04</v>
+      </c>
+      <c r="P9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G10">
+        <v>1.23</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H14" si="2">F10*G10</f>
+        <v>5.0429999999999993</v>
+      </c>
+      <c r="I10">
+        <v>11.36</v>
+      </c>
+      <c r="J10" s="63">
+        <f t="shared" si="1"/>
+        <v>0.44392605633802812</v>
+      </c>
+      <c r="M10" s="66">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="N10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O10">
+        <v>10.68</v>
+      </c>
+      <c r="P10" t="s">
+        <v>137</v>
+      </c>
+      <c r="S10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G11">
+        <v>1.56</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>6.3959999999999999</v>
+      </c>
+      <c r="I11">
+        <v>11.36</v>
+      </c>
+      <c r="J11" s="63">
+        <f t="shared" si="1"/>
+        <v>0.56302816901408448</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C12" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G12">
+        <v>0.93</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>3.8129999999999997</v>
+      </c>
+      <c r="I12">
+        <v>11.36</v>
+      </c>
+      <c r="J12" s="63">
+        <f t="shared" si="1"/>
+        <v>0.33565140845070424</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G13">
+        <v>1.31</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>5.3709999999999996</v>
+      </c>
+      <c r="I13">
+        <v>11.36</v>
+      </c>
+      <c r="J13" s="63">
+        <f t="shared" si="1"/>
+        <v>0.47279929577464785</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G14">
+        <v>1.65</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>6.7649999999999988</v>
+      </c>
+      <c r="I14">
+        <v>11.36</v>
+      </c>
+      <c r="J14" s="63">
+        <f t="shared" si="1"/>
+        <v>0.59551056338028163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plasma_Pipette_PP Issue list.xlsx
+++ b/Plasma_Pipette_PP Issue list.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F726C5-7E13-4139-92E6-A4503B7EB70E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Issue" sheetId="1" r:id="rId1"/>
@@ -15,12 +14,12 @@
     <sheet name="1225" sheetId="4" r:id="rId5"/>
     <sheet name="0115" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="151">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,10 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KEY_OP에 shunt Cap 4.7uF/25V 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Trans molding시 PCB가 case에 밀착이 되지 않아 molding 액이 넘침
 trans coil이 완전히 잠기지 않음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,13 +634,22 @@
   </si>
   <si>
     <t>1/17 Binary에 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery 부착 위치 Silk 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_OP에 shunt Cap 4.7uF/25V 추가
+BZT52C5V1S 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;#&quot;00"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
@@ -1322,7 +1326,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA77CD3-E380-4C55-B6B7-B4FFD78D72CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA77CD3-E380-4C55-B6B7-B4FFD78D72CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1376,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0134AA55-8665-482A-BA8D-2E3884E21C46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0134AA55-8665-482A-BA8D-2E3884E21C46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1483,26 +1487,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1535,23 +1522,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1727,27 +1697,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="70"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="57.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="59" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1767,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="49">
         <v>1</v>
       </c>
@@ -1787,7 +1757,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="33">
         <v>2</v>
       </c>
@@ -1805,7 +1775,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>3</v>
       </c>
@@ -1823,7 +1793,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="44">
         <v>4</v>
       </c>
@@ -1843,7 +1813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="44">
         <v>5</v>
       </c>
@@ -1863,7 +1833,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="35">
         <v>6</v>
       </c>
@@ -1883,7 +1853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B11" s="35">
         <v>7</v>
       </c>
@@ -1903,7 +1873,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="35">
         <v>8</v>
       </c>
@@ -1923,7 +1893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="35">
         <v>9</v>
       </c>
@@ -1940,10 +1910,10 @@
         <v>90</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="33">
         <v>10</v>
       </c>
@@ -1956,14 +1926,14 @@
       <c r="E14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="56" t="s">
         <v>106</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="33">
         <v>11</v>
       </c>
@@ -1981,7 +1951,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="58">
         <v>12</v>
       </c>
@@ -2001,7 +1971,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="35">
         <v>13</v>
       </c>
@@ -2015,13 +1985,13 @@
         <v>110</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B18" s="35">
         <v>14</v>
       </c>
@@ -2035,51 +2005,51 @@
         <v>80</v>
       </c>
       <c r="F18" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" s="33">
+    </row>
+    <row r="19" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="35">
         <v>15</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="36">
         <v>43470</v>
       </c>
-      <c r="D19" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="33">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="35">
         <v>16</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="36">
         <v>43478</v>
       </c>
-      <c r="D20" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F20" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="57"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="33">
         <v>17</v>
       </c>
@@ -2093,13 +2063,13 @@
         <v>6</v>
       </c>
       <c r="F21" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="33">
         <v>18</v>
       </c>
@@ -2113,11 +2083,11 @@
         <v>80</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="33">
         <v>19</v>
       </c>
@@ -2131,11 +2101,11 @@
         <v>6</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="35">
         <v>20</v>
       </c>
@@ -2149,23 +2119,31 @@
         <v>47</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="33">
         <v>21</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="6">
+        <v>43522</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>149</v>
+      </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="33">
         <v>22</v>
       </c>
@@ -2175,7 +2153,7 @@
       <c r="F26" s="56"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="33">
         <v>23</v>
       </c>
@@ -2185,7 +2163,7 @@
       <c r="F27" s="56"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="33">
         <v>24</v>
       </c>
@@ -2195,7 +2173,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="33">
         <v>25</v>
       </c>
@@ -2205,7 +2183,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="33"/>
       <c r="C30" s="6"/>
       <c r="D30" s="72"/>
@@ -2213,7 +2191,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="33"/>
       <c r="C31" s="6"/>
       <c r="D31" s="72"/>
@@ -2221,7 +2199,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="34"/>
       <c r="C32" s="9"/>
       <c r="D32" s="76"/>
@@ -2229,13 +2207,13 @@
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="12"/>
     </row>
   </sheetData>
@@ -2246,21 +2224,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.09765625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
@@ -2270,7 +2248,7 @@
       <c r="D3" s="78"/>
       <c r="E3" s="78"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
@@ -2280,7 +2258,7 @@
       <c r="D4" s="78"/>
       <c r="E4" s="78"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
@@ -2290,122 +2268,122 @@
       <c r="D5" s="77"/>
       <c r="E5" s="77"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C29" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
         <v>41</v>
       </c>
@@ -2422,33 +2400,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.69921875" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="7.5" customWidth="1"/>
     <col min="10" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="41.09765625" customWidth="1"/>
-    <col min="14" max="14" width="6.19921875" customWidth="1"/>
+    <col min="12" max="12" width="41.125" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:12" s="69" customFormat="1" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="69" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
@@ -2465,7 +2443,7 @@
         <v>69</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>83</v>
@@ -2477,18 +2455,18 @@
         <v>47</v>
       </c>
       <c r="K4" s="67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L4" s="68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>53</v>
@@ -2496,7 +2474,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -2510,7 +2488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="22">
         <v>2</v>
       </c>
@@ -2537,12 +2515,12 @@
       <c r="K6" s="65"/>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="22">
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>46</v>
@@ -2570,15 +2548,15 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
         <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>64</v>
@@ -2605,7 +2583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="24">
         <v>5</v>
       </c>
@@ -2636,7 +2614,7 @@
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
@@ -2648,21 +2626,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="81" t="s">
         <v>42</v>
       </c>
@@ -2685,7 +2663,7 @@
       <c r="K4" s="79"/>
       <c r="L4" s="80"/>
     </row>
-    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="82"/>
       <c r="C5" s="84"/>
       <c r="D5" s="31" t="s">
@@ -2716,7 +2694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
         <v>1</v>
       </c>
@@ -2736,7 +2714,7 @@
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="22">
         <v>2</v>
       </c>
@@ -2760,7 +2738,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
         <v>3</v>
       </c>
@@ -2784,7 +2762,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="22">
         <v>4</v>
       </c>
@@ -2808,7 +2786,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="24">
         <v>5</v>
       </c>
@@ -2832,7 +2810,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D11" s="54">
         <v>34.4</v>
       </c>
@@ -2843,7 +2821,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D12" s="54">
         <v>35.200000000000003</v>
       </c>
@@ -2854,22 +2832,22 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>20.25</v>
       </c>
@@ -2880,7 +2858,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>20.27</v>
       </c>
@@ -2905,19 +2883,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -2928,7 +2906,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -2954,7 +2932,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>72</v>
       </c>
@@ -2984,7 +2962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>73</v>
       </c>
@@ -3021,7 +2999,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>0.27</v>
       </c>
@@ -3029,7 +3007,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G9">
         <f>G7*G8</f>
         <v>2.16</v>
@@ -3039,7 +3017,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>76</v>
       </c>
@@ -3047,7 +3025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>78</v>
       </c>
@@ -3055,12 +3033,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>85</v>
       </c>
@@ -3068,7 +3046,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -3076,7 +3054,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>91</v>
       </c>
@@ -3087,7 +3065,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>0.14000000000000001</v>
       </c>
@@ -3104,21 +3082,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C743F30-F2FB-48F9-B4FB-C75560494300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
       <c r="M4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>80</v>
       </c>
@@ -3126,42 +3104,42 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" t="s">
         <v>123</v>
       </c>
-      <c r="J5" t="s">
-        <v>124</v>
-      </c>
       <c r="M5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S5" t="s">
         <v>140</v>
       </c>
-      <c r="S5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C6" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="85" t="s">
-        <v>121</v>
-      </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6">
         <v>4.0999999999999996</v>
@@ -3190,11 +3168,11 @@
         <v>11.36</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7">
         <v>4.0999999999999996</v>
@@ -3223,17 +3201,17 @@
         <v>11.36</v>
       </c>
       <c r="Q7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8">
         <v>4.0999999999999996</v>
@@ -3262,18 +3240,18 @@
         <v>11.36</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C9" s="85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>4.0999999999999996</v>
@@ -3302,14 +3280,14 @@
         <v>11.04</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C10" s="85"/>
       <c r="D10" s="85"/>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10">
         <v>4.0999999999999996</v>
@@ -3338,17 +3316,17 @@
         <v>10.68</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>4.0999999999999996</v>
@@ -3368,15 +3346,15 @@
         <v>0.56302816901408448</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C12" s="85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <v>4.0999999999999996</v>
@@ -3396,11 +3374,11 @@
         <v>0.33565140845070424</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13">
         <v>4.0999999999999996</v>
@@ -3420,11 +3398,11 @@
         <v>0.47279929577464785</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14">
         <v>4.0999999999999996</v>

--- a/Plasma_Pipette_PP Issue list.xlsx
+++ b/Plasma_Pipette_PP Issue list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Issue" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="0115" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1298,9 +1299,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1700,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2227,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -2404,7 +2402,7 @@
   <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2630,7 +2628,7 @@
   <dimension ref="B3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2887,7 +2885,7 @@
   <dimension ref="B4:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3076,7 +3074,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3085,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3148,7 +3146,7 @@
         <v>0.91</v>
       </c>
       <c r="H6">
-        <f>F6*G6</f>
+        <f t="shared" ref="H6:H14" si="0">F6*G6</f>
         <v>3.7309999999999999</v>
       </c>
       <c r="I6">
@@ -3181,7 +3179,7 @@
         <v>1.36</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H8" si="0">F7*G7</f>
+        <f t="shared" si="0"/>
         <v>5.5759999999999996</v>
       </c>
       <c r="I7">
@@ -3260,7 +3258,7 @@
         <v>0.86</v>
       </c>
       <c r="H9">
-        <f>F9*G9</f>
+        <f t="shared" si="0"/>
         <v>3.5259999999999998</v>
       </c>
       <c r="I9">
@@ -3296,7 +3294,7 @@
         <v>1.23</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:H14" si="2">F10*G10</f>
+        <f t="shared" si="0"/>
         <v>5.0429999999999993</v>
       </c>
       <c r="I10">
@@ -3335,7 +3333,7 @@
         <v>1.56</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.3959999999999999</v>
       </c>
       <c r="I11">
@@ -3363,7 +3361,7 @@
         <v>0.93</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.8129999999999997</v>
       </c>
       <c r="I12">
@@ -3387,7 +3385,7 @@
         <v>1.31</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.3709999999999996</v>
       </c>
       <c r="I13">
@@ -3411,7 +3409,7 @@
         <v>1.65</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.7649999999999988</v>
       </c>
       <c r="I14">
